--- a/Code/Results/Cases/Case_3_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.586446874479691</v>
+        <v>1.681069641154807</v>
       </c>
       <c r="C2">
-        <v>0.4178771219524435</v>
+        <v>0.1579971622521441</v>
       </c>
       <c r="D2">
-        <v>0.02352459944787277</v>
+        <v>0.08123152478877316</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.486959919872305</v>
+        <v>2.522667468636485</v>
       </c>
       <c r="G2">
-        <v>1.28609932574237</v>
+        <v>1.848888428779702</v>
       </c>
       <c r="H2">
-        <v>0.8287614203707676</v>
+        <v>1.591304099586381</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08901842249123826</v>
+        <v>0.2043006506243119</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1765246466747143</v>
+        <v>0.3189709388046893</v>
       </c>
       <c r="M2">
-        <v>0.4409015024539826</v>
+        <v>0.3855908463116364</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.251013948293007</v>
+        <v>1.594119468384292</v>
       </c>
       <c r="C3">
-        <v>0.3728017091093818</v>
+        <v>0.1434501723039716</v>
       </c>
       <c r="D3">
-        <v>0.02270447917443619</v>
+        <v>0.08110058299276091</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.424190140204189</v>
+        <v>2.524891366810763</v>
       </c>
       <c r="G3">
-        <v>1.216140181640156</v>
+        <v>1.845586416402725</v>
       </c>
       <c r="H3">
-        <v>0.8059574608902693</v>
+        <v>1.596441010221639</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0916304277705593</v>
+        <v>0.2054991594563775</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1623613464419265</v>
+        <v>0.3167682993302279</v>
       </c>
       <c r="M3">
-        <v>0.3868599950259082</v>
+        <v>0.3725014846121795</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.046900056362006</v>
+        <v>1.541434001318976</v>
       </c>
       <c r="C4">
-        <v>0.345183471037501</v>
+        <v>0.1344554492388568</v>
       </c>
       <c r="D4">
-        <v>0.02221175525573038</v>
+        <v>0.08102483997508791</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.388714604960015</v>
+        <v>2.527626293406257</v>
       </c>
       <c r="G4">
-        <v>1.176161583154283</v>
+        <v>1.844728067973762</v>
       </c>
       <c r="H4">
-        <v>0.7936047313664147</v>
+        <v>1.600380888814399</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09329080709602255</v>
+        <v>0.206272965773836</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1538397518096133</v>
+        <v>0.3155293639560384</v>
       </c>
       <c r="M4">
-        <v>0.3540341047978757</v>
+        <v>0.3646297798263305</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964122073775059</v>
+        <v>1.520141633494234</v>
       </c>
       <c r="C5">
-        <v>0.333936037407156</v>
+        <v>0.1307742864037493</v>
       </c>
       <c r="D5">
-        <v>0.02201333531957772</v>
+        <v>0.08099514889536152</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.374981483571872</v>
+        <v>2.529084715873367</v>
       </c>
       <c r="G5">
-        <v>1.160567522340003</v>
+        <v>1.844671567360677</v>
       </c>
       <c r="H5">
-        <v>0.7889621547210623</v>
+        <v>1.602183841260469</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09398164811423926</v>
+        <v>0.2065978500984869</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1504079584839033</v>
+        <v>0.3150531084479837</v>
       </c>
       <c r="M5">
-        <v>0.3407362958883837</v>
+        <v>0.3614636982544894</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950399248514543</v>
+        <v>1.516616789578961</v>
       </c>
       <c r="C6">
-        <v>0.3320686395663159</v>
+        <v>0.1301620831302444</v>
       </c>
       <c r="D6">
-        <v>0.02198052120652427</v>
+        <v>0.08099028979523659</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.372743477157542</v>
+        <v>2.529347644767171</v>
       </c>
       <c r="G6">
-        <v>1.158018843851863</v>
+        <v>1.844679878718054</v>
       </c>
       <c r="H6">
-        <v>0.7882142348098711</v>
+        <v>1.602495138744189</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09409722052522618</v>
+        <v>0.2066523743214672</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1498404907147872</v>
+        <v>0.3149757576295897</v>
       </c>
       <c r="M6">
-        <v>0.3385326848437273</v>
+        <v>0.3609404962213389</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.045782144161933</v>
+        <v>1.541146125702596</v>
       </c>
       <c r="C7">
-        <v>0.3450317643726635</v>
+        <v>0.1344058674453379</v>
       </c>
       <c r="D7">
-        <v>0.02220907014679874</v>
+        <v>0.0810244347872171</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.388526526422339</v>
+        <v>2.527644570286782</v>
       </c>
       <c r="G7">
-        <v>1.175948516775307</v>
+        <v>1.844726119424635</v>
       </c>
       <c r="H7">
-        <v>0.7935405655447596</v>
+        <v>1.600404404956706</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09330006644198119</v>
+        <v>0.206277308579061</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1537933080983791</v>
+        <v>0.3155228250140283</v>
       </c>
       <c r="M7">
-        <v>0.3538544592905524</v>
+        <v>0.3645869118826681</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470367328091243</v>
+        <v>1.65094389943738</v>
       </c>
       <c r="C8">
-        <v>0.4023183693035719</v>
+        <v>0.1529944245857848</v>
       </c>
       <c r="D8">
-        <v>0.02323934838125119</v>
+        <v>0.08118541206290786</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.464651173412008</v>
+        <v>2.523149769451521</v>
       </c>
       <c r="G8">
-        <v>1.261327868956855</v>
+        <v>1.847506822801705</v>
       </c>
       <c r="H8">
-        <v>0.8205417872587333</v>
+        <v>1.592912106978872</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08990728990502639</v>
+        <v>0.2047060373486898</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1716029303891915</v>
+        <v>0.3181879603897713</v>
       </c>
       <c r="M8">
-        <v>0.4221875928876884</v>
+        <v>0.3810434321109071</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.320747695241835</v>
+        <v>1.871808056873363</v>
       </c>
       <c r="C9">
-        <v>0.51549025962305</v>
+        <v>0.1889475467847035</v>
       </c>
       <c r="D9">
-        <v>0.02536378179366316</v>
+        <v>0.08153788961709907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.64056726695901</v>
+        <v>2.525224125302842</v>
       </c>
       <c r="G9">
-        <v>1.454864377583533</v>
+        <v>1.86227029203539</v>
       </c>
       <c r="H9">
-        <v>0.8877183521515519</v>
+        <v>1.584463777751751</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08370341128456849</v>
+        <v>0.2019248151364299</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.208067739824159</v>
+        <v>0.3243118086517995</v>
       </c>
       <c r="M9">
-        <v>0.5595303598660877</v>
+        <v>0.4146208124806279</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.961193276048675</v>
+        <v>2.037452291848524</v>
       </c>
       <c r="C10">
-        <v>0.5997205140039341</v>
+        <v>0.2150599816505974</v>
       </c>
       <c r="D10">
-        <v>0.02701682663065874</v>
+        <v>0.08181916066350503</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.789567016148609</v>
+        <v>2.533421776865836</v>
       </c>
       <c r="G10">
-        <v>1.616758351327263</v>
+        <v>1.878844412572391</v>
       </c>
       <c r="H10">
-        <v>0.9474851626776797</v>
+        <v>1.582077754573959</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07941955507124843</v>
+        <v>0.2000631806808641</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2360332486649526</v>
+        <v>0.3293549951859376</v>
       </c>
       <c r="M10">
-        <v>0.6632703930722883</v>
+        <v>0.4400832799449717</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.257156199257736</v>
+        <v>2.113540803863771</v>
       </c>
       <c r="C11">
-        <v>0.6384186543436101</v>
+        <v>0.2268741657499334</v>
       </c>
       <c r="D11">
-        <v>0.027796406157929</v>
+        <v>0.08195194215216617</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.8625121311198</v>
+        <v>2.5386082011361</v>
       </c>
       <c r="G11">
-        <v>1.695626350664611</v>
+        <v>1.887639422631281</v>
       </c>
       <c r="H11">
-        <v>0.97736748359128</v>
+        <v>1.581825242158772</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07753030784216586</v>
+        <v>0.1992554840137868</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2490691056399186</v>
+        <v>0.3317667993658375</v>
       </c>
       <c r="M11">
-        <v>0.7112781864831845</v>
+        <v>0.4518386420009648</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.370005322901818</v>
+        <v>2.14245898436684</v>
       </c>
       <c r="C12">
-        <v>0.6531408915934946</v>
+        <v>0.231338611864544</v>
       </c>
       <c r="D12">
-        <v>0.02809631342844376</v>
+        <v>0.08200291545768401</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.890958270951046</v>
+        <v>2.540782298960437</v>
       </c>
       <c r="G12">
-        <v>1.726330009991557</v>
+        <v>1.891151230368081</v>
       </c>
       <c r="H12">
-        <v>0.9891108200790768</v>
+        <v>1.581849633759845</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07682347072153539</v>
+        <v>0.198955245011768</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2540560146866824</v>
+        <v>0.3326969379065048</v>
       </c>
       <c r="M12">
-        <v>0.7295931054871687</v>
+        <v>0.4563147811982518</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.345664931182966</v>
+        <v>2.13622627344796</v>
       </c>
       <c r="C13">
-        <v>0.6499669393424767</v>
+        <v>0.2303775292680257</v>
       </c>
       <c r="D13">
-        <v>0.02803150143850885</v>
+        <v>0.08199190671459711</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.884793888639578</v>
+        <v>2.540304714413409</v>
       </c>
       <c r="G13">
-        <v>1.719678668584208</v>
+        <v>1.890386822201663</v>
       </c>
       <c r="H13">
-        <v>0.9865619827670571</v>
+        <v>1.581839039117227</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07697531875078023</v>
+        <v>0.1990196572101111</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2529796573452074</v>
+        <v>0.33249586811732</v>
       </c>
       <c r="M13">
-        <v>0.7256423296422057</v>
+        <v>0.4553496710089462</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.266424174467772</v>
+        <v>2.115917817536854</v>
       </c>
       <c r="C14">
-        <v>0.6396284159135064</v>
+        <v>0.2272416456886788</v>
       </c>
       <c r="D14">
-        <v>0.02782098103759267</v>
+        <v>0.08195612190568546</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.864835417426946</v>
+        <v>2.53878285132086</v>
       </c>
       <c r="G14">
-        <v>1.698135031386528</v>
+        <v>1.887924702435697</v>
       </c>
       <c r="H14">
-        <v>0.9783248013214632</v>
+        <v>1.581824842245027</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07747198383053644</v>
+        <v>0.1992306706555658</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2494783368379103</v>
+        <v>0.3318429853363796</v>
       </c>
       <c r="M14">
-        <v>0.7127821418615596</v>
+        <v>0.4522064036944755</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.217991226980757</v>
+        <v>2.103491969008928</v>
       </c>
       <c r="C15">
-        <v>0.6333050573434775</v>
+        <v>0.225319609960934</v>
       </c>
       <c r="D15">
-        <v>0.02769266627245059</v>
+        <v>0.08193429269901564</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.85272004862118</v>
+        <v>2.537878045554692</v>
       </c>
       <c r="G15">
-        <v>1.685050813931241</v>
+        <v>1.886440221336358</v>
       </c>
       <c r="H15">
-        <v>0.973336232155475</v>
+        <v>1.581831782656394</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07777732362055501</v>
+        <v>0.1993606537133639</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2473404225791569</v>
+        <v>0.3314452667282808</v>
       </c>
       <c r="M15">
-        <v>0.7049231081902505</v>
+        <v>0.4502842661160571</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.941953528693944</v>
+        <v>2.032494477435705</v>
       </c>
       <c r="C16">
-        <v>0.5972002739454751</v>
+        <v>0.2142865943992831</v>
       </c>
       <c r="D16">
-        <v>0.02696649472989776</v>
+        <v>0.08181058003443731</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.784910521338048</v>
+        <v>2.533112203471433</v>
       </c>
       <c r="G16">
-        <v>1.611716466240352</v>
+        <v>1.878294968139585</v>
       </c>
       <c r="H16">
-        <v>0.9455898330189143</v>
+        <v>1.582111037631336</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07954422109582171</v>
+        <v>0.2001167525240044</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2351880910233461</v>
+        <v>0.3291997387648138</v>
       </c>
       <c r="M16">
-        <v>0.6601508933535456</v>
+        <v>0.4393184950949873</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.773871603970406</v>
+        <v>1.989127819886903</v>
       </c>
       <c r="C17">
-        <v>0.5751578223109561</v>
+        <v>0.2075016383611228</v>
       </c>
       <c r="D17">
-        <v>0.02652856938985515</v>
+        <v>0.08173592136945729</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.744689236086558</v>
+        <v>2.530562151726315</v>
       </c>
       <c r="G17">
-        <v>1.568124886171319</v>
+        <v>1.873620221810882</v>
       </c>
       <c r="H17">
-        <v>0.9292856274277881</v>
+        <v>1.582495849343275</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08064341110405504</v>
+        <v>0.2005906167548499</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2278171333804266</v>
+        <v>0.3278522551425453</v>
       </c>
       <c r="M17">
-        <v>0.6329058644564824</v>
+        <v>0.4326353896190795</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.677623064860995</v>
+        <v>1.964253795383513</v>
       </c>
       <c r="C18">
-        <v>0.5625146099680478</v>
+        <v>0.2035930437600371</v>
       </c>
       <c r="D18">
-        <v>0.02627923520175024</v>
+        <v>0.0816934344361826</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.722035817253953</v>
+        <v>2.52923256122321</v>
       </c>
       <c r="G18">
-        <v>1.543537925261944</v>
+        <v>1.871049543276001</v>
       </c>
       <c r="H18">
-        <v>0.9201588267458192</v>
+        <v>1.582795564905098</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08128123503612938</v>
+        <v>0.2008668586624811</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2236067790045837</v>
+        <v>0.3270882948112188</v>
       </c>
       <c r="M18">
-        <v>0.6173108576831154</v>
+        <v>0.4288076757635295</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.645105260050173</v>
+        <v>1.955843808474071</v>
       </c>
       <c r="C19">
-        <v>0.5582394700052191</v>
+        <v>0.2022686204390709</v>
       </c>
       <c r="D19">
-        <v>0.02619523207782315</v>
+        <v>0.08167912728123738</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.714446007090999</v>
+        <v>2.528805920285734</v>
       </c>
       <c r="G19">
-        <v>1.53529411929668</v>
+        <v>1.870199416897606</v>
       </c>
       <c r="H19">
-        <v>0.917110592277453</v>
+        <v>1.582910498274288</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08149815219387313</v>
+        <v>0.2009610232401249</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2221860909805145</v>
+        <v>0.3268315356893225</v>
       </c>
       <c r="M19">
-        <v>0.6120431216437012</v>
+        <v>0.4275144699343016</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.791719182107272</v>
+        <v>1.993737104670856</v>
       </c>
       <c r="C20">
-        <v>0.5775005627480994</v>
+        <v>0.208224536863213</v>
       </c>
       <c r="D20">
-        <v>0.0265749185240054</v>
+        <v>0.08174382186598805</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.748920540367507</v>
+        <v>2.530819412471999</v>
       </c>
       <c r="G20">
-        <v>1.572714406299752</v>
+        <v>1.874105626577233</v>
       </c>
       <c r="H20">
-        <v>0.9309949881517525</v>
+        <v>1.58244677151302</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08052582082091697</v>
+        <v>0.200539791537957</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.228598722746753</v>
+        <v>0.3279945512339424</v>
       </c>
       <c r="M20">
-        <v>0.6357981934711177</v>
+        <v>0.4333451387629808</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.289677156227526</v>
+        <v>2.121880056400016</v>
       </c>
       <c r="C21">
-        <v>0.6426631300232373</v>
+        <v>0.2281629843205053</v>
       </c>
       <c r="D21">
-        <v>0.02788268219369527</v>
+        <v>0.08196661401516891</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.870674671951065</v>
+        <v>2.539224152575784</v>
       </c>
       <c r="G21">
-        <v>1.704439435071748</v>
+        <v>1.888642959035082</v>
       </c>
       <c r="H21">
-        <v>0.9807323168228663</v>
+        <v>1.581825753161326</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07732586820313969</v>
+        <v>0.1991685385293644</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.250505343473634</v>
+        <v>0.3320342963762499</v>
       </c>
       <c r="M21">
-        <v>0.7165556623934748</v>
+        <v>0.4531289899579676</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.61969469565696</v>
+        <v>2.206241229643183</v>
       </c>
       <c r="C22">
-        <v>0.6856547573110561</v>
+        <v>0.2411395124177318</v>
       </c>
       <c r="D22">
-        <v>0.02876517438790671</v>
+        <v>0.08211625306283388</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.955091182644168</v>
+        <v>2.545942087779608</v>
       </c>
       <c r="G22">
-        <v>1.795461440519858</v>
+        <v>1.8992012434922</v>
       </c>
       <c r="H22">
-        <v>1.015752379380046</v>
+        <v>1.582119520861795</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07528453658048284</v>
+        <v>0.1983050859971454</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2651198887140538</v>
+        <v>0.3347726296016447</v>
       </c>
       <c r="M22">
-        <v>0.7701343854077649</v>
+        <v>0.4662024283841291</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.44310031113514</v>
+        <v>2.161160293229216</v>
       </c>
       <c r="C23">
-        <v>0.6626675716102</v>
+        <v>0.2342186901144316</v>
       </c>
       <c r="D23">
-        <v>0.02829136112814545</v>
+        <v>0.0820360198250345</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.909564434078277</v>
+        <v>2.542244331139941</v>
       </c>
       <c r="G23">
-        <v>1.746398756416056</v>
+        <v>1.893469077649939</v>
       </c>
       <c r="H23">
-        <v>0.9968171104230805</v>
+        <v>1.581898633884265</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0763694481716557</v>
+        <v>0.198762935820314</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2572907224445657</v>
+        <v>0.3333021754959304</v>
       </c>
       <c r="M23">
-        <v>0.7414588268989988</v>
+        <v>0.4592118009536819</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.78364910412671</v>
+        <v>1.991653066164588</v>
       </c>
       <c r="C24">
-        <v>0.5764413195580289</v>
+        <v>0.2078977388457872</v>
       </c>
       <c r="D24">
-        <v>0.02655395655006387</v>
+        <v>0.0817402486961285</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.747006108720569</v>
+        <v>2.530702679845362</v>
       </c>
       <c r="G24">
-        <v>1.57063801301922</v>
+        <v>1.873885811026838</v>
       </c>
       <c r="H24">
-        <v>0.9302214207226029</v>
+        <v>1.582468715150725</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08057896505935647</v>
+        <v>0.2005627577462317</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2282452815341145</v>
+        <v>0.3279301857562587</v>
       </c>
       <c r="M24">
-        <v>0.6344903594323412</v>
+        <v>0.4330242160222326</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088322187382914</v>
+        <v>1.811465155173494</v>
       </c>
       <c r="C25">
-        <v>0.4847291007218644</v>
+        <v>0.1792745122400277</v>
       </c>
       <c r="D25">
-        <v>0.02477517272222229</v>
+        <v>0.08143860959734184</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.589781703455088</v>
+        <v>2.523493581213145</v>
       </c>
       <c r="G25">
-        <v>1.399342270467486</v>
+        <v>1.857274315135044</v>
       </c>
       <c r="H25">
-        <v>0.8678521782080111</v>
+        <v>1.586079322376548</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08533360451538874</v>
+        <v>0.2026452112190757</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1980150770408429</v>
+        <v>0.3225593903743444</v>
       </c>
       <c r="M25">
-        <v>0.5219398443462424</v>
+        <v>0.4053977410139069</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.681069641154807</v>
+        <v>2.586446874479748</v>
       </c>
       <c r="C2">
-        <v>0.1579971622521441</v>
+        <v>0.4178771219525572</v>
       </c>
       <c r="D2">
-        <v>0.08123152478877316</v>
+        <v>0.02352459944814989</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.522667468636485</v>
+        <v>1.486959919872291</v>
       </c>
       <c r="G2">
-        <v>1.848888428779702</v>
+        <v>1.286099325742356</v>
       </c>
       <c r="H2">
-        <v>1.591304099586381</v>
+        <v>0.828761420370796</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2043006506243119</v>
+        <v>0.08901842249125269</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3189709388046893</v>
+        <v>0.1765246466747001</v>
       </c>
       <c r="M2">
-        <v>0.3855908463116364</v>
+        <v>0.4409015024539897</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.594119468384292</v>
+        <v>2.251013948292893</v>
       </c>
       <c r="C3">
-        <v>0.1434501723039716</v>
+        <v>0.3728017091090692</v>
       </c>
       <c r="D3">
-        <v>0.08110058299276091</v>
+        <v>0.02270447917433671</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.524891366810763</v>
+        <v>1.424190140204175</v>
       </c>
       <c r="G3">
-        <v>1.845586416402725</v>
+        <v>1.216140181640171</v>
       </c>
       <c r="H3">
-        <v>1.596441010221639</v>
+        <v>0.8059574608902693</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2054991594563775</v>
+        <v>0.09163042777059083</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3167682993302279</v>
+        <v>0.1623613464419407</v>
       </c>
       <c r="M3">
-        <v>0.3725014846121795</v>
+        <v>0.3868599950259153</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.541434001318976</v>
+        <v>2.046900056362006</v>
       </c>
       <c r="C4">
-        <v>0.1344554492388568</v>
+        <v>0.3451834710375294</v>
       </c>
       <c r="D4">
-        <v>0.08102483997508791</v>
+        <v>0.02221175525584229</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.527626293406257</v>
+        <v>1.388714604960001</v>
       </c>
       <c r="G4">
-        <v>1.844728067973762</v>
+        <v>1.176161583154268</v>
       </c>
       <c r="H4">
-        <v>1.600380888814399</v>
+        <v>0.7936047313663011</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.206272965773836</v>
+        <v>0.09329080709603854</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3155293639560384</v>
+        <v>0.1538397518096417</v>
       </c>
       <c r="M4">
-        <v>0.3646297798263305</v>
+        <v>0.3540341047978686</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.520141633494234</v>
+        <v>1.964122073775172</v>
       </c>
       <c r="C5">
-        <v>0.1307742864037493</v>
+        <v>0.3339360374073976</v>
       </c>
       <c r="D5">
-        <v>0.08099514889536152</v>
+        <v>0.02201333531963634</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.529084715873367</v>
+        <v>1.374981483571844</v>
       </c>
       <c r="G5">
-        <v>1.844671567360677</v>
+        <v>1.16056752234006</v>
       </c>
       <c r="H5">
-        <v>1.602183841260469</v>
+        <v>0.7889621547210481</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2065978500984869</v>
+        <v>0.0939816481141329</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3150531084479837</v>
+        <v>0.1504079584839602</v>
       </c>
       <c r="M5">
-        <v>0.3614636982544894</v>
+        <v>0.3407362958883837</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.516616789578961</v>
+        <v>1.950399248514486</v>
       </c>
       <c r="C6">
-        <v>0.1301620831302444</v>
+        <v>0.3320686395662307</v>
       </c>
       <c r="D6">
-        <v>0.08099028979523659</v>
+        <v>0.02198052120641414</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.529347644767171</v>
+        <v>1.372743477157513</v>
       </c>
       <c r="G6">
-        <v>1.844679878718054</v>
+        <v>1.158018843851821</v>
       </c>
       <c r="H6">
-        <v>1.602495138744189</v>
+        <v>0.788214234809729</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2066523743214672</v>
+        <v>0.09409722052527503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3149757576295897</v>
+        <v>0.1498404907149293</v>
       </c>
       <c r="M6">
-        <v>0.3609404962213389</v>
+        <v>0.3385326848437131</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.541146125702596</v>
+        <v>2.04578214416199</v>
       </c>
       <c r="C7">
-        <v>0.1344058674453379</v>
+        <v>0.3450317643726635</v>
       </c>
       <c r="D7">
-        <v>0.0810244347872171</v>
+        <v>0.02220907014672768</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.527644570286782</v>
+        <v>1.388526526422353</v>
       </c>
       <c r="G7">
-        <v>1.844726119424635</v>
+        <v>1.175948516775364</v>
       </c>
       <c r="H7">
-        <v>1.600404404956706</v>
+        <v>0.7935405655447596</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.206277308579061</v>
+        <v>0.09330006644201827</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3155228250140283</v>
+        <v>0.1537933080984359</v>
       </c>
       <c r="M7">
-        <v>0.3645869118826681</v>
+        <v>0.3538544592905737</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.65094389943738</v>
+        <v>2.470367328091186</v>
       </c>
       <c r="C8">
-        <v>0.1529944245857848</v>
+        <v>0.4023183693036003</v>
       </c>
       <c r="D8">
-        <v>0.08118541206290786</v>
+        <v>0.02323934838118724</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.523149769451521</v>
+        <v>1.464651173411994</v>
       </c>
       <c r="G8">
-        <v>1.847506822801705</v>
+        <v>1.261327868956784</v>
       </c>
       <c r="H8">
-        <v>1.592912106978872</v>
+        <v>0.8205417872587475</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2047060373486898</v>
+        <v>0.08990728990498909</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3181879603897713</v>
+        <v>0.1716029303891773</v>
       </c>
       <c r="M8">
-        <v>0.3810434321109071</v>
+        <v>0.4221875928876671</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.871808056873363</v>
+        <v>3.320747695241948</v>
       </c>
       <c r="C9">
-        <v>0.1889475467847035</v>
+        <v>0.5154902596231068</v>
       </c>
       <c r="D9">
-        <v>0.08153788961709907</v>
+        <v>0.02536378179352106</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.525224125302842</v>
+        <v>1.640567266959025</v>
       </c>
       <c r="G9">
-        <v>1.86227029203539</v>
+        <v>1.454864377583533</v>
       </c>
       <c r="H9">
-        <v>1.584463777751751</v>
+        <v>0.8877183521515235</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2019248151364299</v>
+        <v>0.08370341128445458</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3243118086517995</v>
+        <v>0.2080677398241235</v>
       </c>
       <c r="M9">
-        <v>0.4146208124806279</v>
+        <v>0.5595303598660948</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.037452291848524</v>
+        <v>3.961193276048846</v>
       </c>
       <c r="C10">
-        <v>0.2150599816505974</v>
+        <v>0.5997205140039625</v>
       </c>
       <c r="D10">
-        <v>0.08181916066350503</v>
+        <v>0.02701682663079552</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.533421776865836</v>
+        <v>1.789567016148581</v>
       </c>
       <c r="G10">
-        <v>1.878844412572391</v>
+        <v>1.616758351327292</v>
       </c>
       <c r="H10">
-        <v>1.582077754573959</v>
+        <v>0.9474851626778218</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2000631806808641</v>
+        <v>0.07941955507113763</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3293549951859376</v>
+        <v>0.2360332486649384</v>
       </c>
       <c r="M10">
-        <v>0.4400832799449717</v>
+        <v>0.6632703930722954</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.113540803863771</v>
+        <v>4.257156199257679</v>
       </c>
       <c r="C11">
-        <v>0.2268741657499334</v>
+        <v>0.6384186543434112</v>
       </c>
       <c r="D11">
-        <v>0.08195194215216617</v>
+        <v>0.02779640615790413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.5386082011361</v>
+        <v>1.862512131119857</v>
       </c>
       <c r="G11">
-        <v>1.887639422631281</v>
+        <v>1.695626350664668</v>
       </c>
       <c r="H11">
-        <v>1.581825242158772</v>
+        <v>0.9773674835912516</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1992554840137868</v>
+        <v>0.0775303078421743</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3317667993658375</v>
+        <v>0.2490691056400038</v>
       </c>
       <c r="M11">
-        <v>0.4518386420009648</v>
+        <v>0.7112781864831845</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.14245898436684</v>
+        <v>4.370005322902045</v>
       </c>
       <c r="C12">
-        <v>0.231338611864544</v>
+        <v>0.6531408915934946</v>
       </c>
       <c r="D12">
-        <v>0.08200291545768401</v>
+        <v>0.02809631342824659</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.540782298960437</v>
+        <v>1.890958270951032</v>
       </c>
       <c r="G12">
-        <v>1.891151230368081</v>
+        <v>1.726330009991614</v>
       </c>
       <c r="H12">
-        <v>1.581849633759845</v>
+        <v>0.9891108200789631</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.198955245011768</v>
+        <v>0.0768234707215274</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3326969379065048</v>
+        <v>0.2540560146867819</v>
       </c>
       <c r="M12">
-        <v>0.4563147811982518</v>
+        <v>0.7295931054871829</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.13622627344796</v>
+        <v>4.34566493118291</v>
       </c>
       <c r="C13">
-        <v>0.2303775292680257</v>
+        <v>0.649966939342363</v>
       </c>
       <c r="D13">
-        <v>0.08199190671459711</v>
+        <v>0.02803150143839162</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.540304714413409</v>
+        <v>1.884793888639535</v>
       </c>
       <c r="G13">
-        <v>1.890386822201663</v>
+        <v>1.719678668584208</v>
       </c>
       <c r="H13">
-        <v>1.581839039117227</v>
+        <v>0.9865619827670287</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1990196572101111</v>
+        <v>0.0769753187507991</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.33249586811732</v>
+        <v>0.2529796573450369</v>
       </c>
       <c r="M13">
-        <v>0.4553496710089462</v>
+        <v>0.7256423296422128</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.115917817536854</v>
+        <v>4.266424174467716</v>
       </c>
       <c r="C14">
-        <v>0.2272416456886788</v>
+        <v>0.6396284159135064</v>
       </c>
       <c r="D14">
-        <v>0.08195612190568546</v>
+        <v>0.02782098103759267</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.53878285132086</v>
+        <v>1.864835417426946</v>
       </c>
       <c r="G14">
-        <v>1.887924702435697</v>
+        <v>1.698135031386528</v>
       </c>
       <c r="H14">
-        <v>1.581824842245027</v>
+        <v>0.9783248013214632</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1992306706555658</v>
+        <v>0.07747198383057929</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3318429853363796</v>
+        <v>0.2494783368379245</v>
       </c>
       <c r="M14">
-        <v>0.4522064036944755</v>
+        <v>0.7127821418615667</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.103491969008928</v>
+        <v>4.217991226980644</v>
       </c>
       <c r="C15">
-        <v>0.225319609960934</v>
+        <v>0.6333050573437902</v>
       </c>
       <c r="D15">
-        <v>0.08193429269901564</v>
+        <v>0.02769266627254474</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.537878045554692</v>
+        <v>1.85272004862118</v>
       </c>
       <c r="G15">
-        <v>1.886440221336358</v>
+        <v>1.685050813931355</v>
       </c>
       <c r="H15">
-        <v>1.581831782656394</v>
+        <v>0.9733362321555887</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1993606537133639</v>
+        <v>0.07777732362056566</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3314452667282808</v>
+        <v>0.2473404225791427</v>
       </c>
       <c r="M15">
-        <v>0.4502842661160571</v>
+        <v>0.7049231081902434</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.032494477435705</v>
+        <v>3.941953528694</v>
       </c>
       <c r="C16">
-        <v>0.2142865943992831</v>
+        <v>0.5972002739452762</v>
       </c>
       <c r="D16">
-        <v>0.08181058003443731</v>
+        <v>0.02696649473010382</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.533112203471433</v>
+        <v>1.78491052133802</v>
       </c>
       <c r="G16">
-        <v>1.878294968139585</v>
+        <v>1.611716466240296</v>
       </c>
       <c r="H16">
-        <v>1.582111037631336</v>
+        <v>0.9455898330188859</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2001167525240044</v>
+        <v>0.07954422109586701</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3291997387648138</v>
+        <v>0.2351880910233746</v>
       </c>
       <c r="M16">
-        <v>0.4393184950949873</v>
+        <v>0.6601508933535385</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.989127819886903</v>
+        <v>3.773871603970179</v>
       </c>
       <c r="C17">
-        <v>0.2075016383611228</v>
+        <v>0.5751578223109561</v>
       </c>
       <c r="D17">
-        <v>0.08173592136945729</v>
+        <v>0.02652856938994219</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.530562151726315</v>
+        <v>1.744689236086543</v>
       </c>
       <c r="G17">
-        <v>1.873620221810882</v>
+        <v>1.568124886171262</v>
       </c>
       <c r="H17">
-        <v>1.582495849343275</v>
+        <v>0.9292856274278165</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2005906167548499</v>
+        <v>0.0806434111041634</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3278522551425453</v>
+        <v>0.2278171333804124</v>
       </c>
       <c r="M17">
-        <v>0.4326353896190795</v>
+        <v>0.6329058644564611</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.964253795383513</v>
+        <v>3.677623064860882</v>
       </c>
       <c r="C18">
-        <v>0.2035930437600371</v>
+        <v>0.5625146099681899</v>
       </c>
       <c r="D18">
-        <v>0.0816934344361826</v>
+        <v>0.02627923520173425</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.52923256122321</v>
+        <v>1.722035817253968</v>
       </c>
       <c r="G18">
-        <v>1.871049543276001</v>
+        <v>1.543537925262029</v>
       </c>
       <c r="H18">
-        <v>1.582795564905098</v>
+        <v>0.9201588267459613</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2008668586624811</v>
+        <v>0.08128123503616469</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3270882948112188</v>
+        <v>0.2236067790046548</v>
       </c>
       <c r="M18">
-        <v>0.4288076757635295</v>
+        <v>0.6173108576831225</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.955843808474071</v>
+        <v>3.645105260050229</v>
       </c>
       <c r="C19">
-        <v>0.2022686204390709</v>
+        <v>0.5582394700053044</v>
       </c>
       <c r="D19">
-        <v>0.08167912728123738</v>
+        <v>0.02619523207811447</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.528805920285734</v>
+        <v>1.714446007090984</v>
       </c>
       <c r="G19">
-        <v>1.870199416897606</v>
+        <v>1.535294119296708</v>
       </c>
       <c r="H19">
-        <v>1.582910498274288</v>
+        <v>0.917110592277453</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2009610232401249</v>
+        <v>0.08149815219381384</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3268315356893225</v>
+        <v>0.2221860909804718</v>
       </c>
       <c r="M19">
-        <v>0.4275144699343016</v>
+        <v>0.6120431216436941</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.993737104670856</v>
+        <v>3.791719182107329</v>
       </c>
       <c r="C20">
-        <v>0.208224536863213</v>
+        <v>0.5775005627484688</v>
       </c>
       <c r="D20">
-        <v>0.08174382186598805</v>
+        <v>0.02657491852378158</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.530819412471999</v>
+        <v>1.748920540367507</v>
       </c>
       <c r="G20">
-        <v>1.874105626577233</v>
+        <v>1.572714406299724</v>
       </c>
       <c r="H20">
-        <v>1.58244677151302</v>
+        <v>0.9309949881517809</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.200539791537957</v>
+        <v>0.08052582082099669</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3279945512339424</v>
+        <v>0.2285987227466961</v>
       </c>
       <c r="M20">
-        <v>0.4333451387629808</v>
+        <v>0.6357981934711248</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.121880056400016</v>
+        <v>4.289677156227469</v>
       </c>
       <c r="C21">
-        <v>0.2281629843205053</v>
+        <v>0.6426631300234362</v>
       </c>
       <c r="D21">
-        <v>0.08196661401516891</v>
+        <v>0.02788268219338441</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.539224152575784</v>
+        <v>1.870674671951051</v>
       </c>
       <c r="G21">
-        <v>1.888642959035082</v>
+        <v>1.70443943507172</v>
       </c>
       <c r="H21">
-        <v>1.581825753161326</v>
+        <v>0.9807323168228663</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1991685385293644</v>
+        <v>0.07732586820323739</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3320342963762499</v>
+        <v>0.2505053434737192</v>
       </c>
       <c r="M21">
-        <v>0.4531289899579676</v>
+        <v>0.7165556623934464</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.206241229643183</v>
+        <v>4.619694695657017</v>
       </c>
       <c r="C22">
-        <v>0.2411395124177318</v>
+        <v>0.6856547573113403</v>
       </c>
       <c r="D22">
-        <v>0.08211625306283388</v>
+        <v>0.02876517438799198</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.545942087779608</v>
+        <v>1.955091182644153</v>
       </c>
       <c r="G22">
-        <v>1.8992012434922</v>
+        <v>1.795461440519887</v>
       </c>
       <c r="H22">
-        <v>1.582119520861795</v>
+        <v>1.015752379380075</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1983050859971454</v>
+        <v>0.07528453658050349</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3347726296016447</v>
+        <v>0.2651198887140822</v>
       </c>
       <c r="M22">
-        <v>0.4662024283841291</v>
+        <v>0.7701343854077791</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.161160293229216</v>
+        <v>4.44310031113514</v>
       </c>
       <c r="C23">
-        <v>0.2342186901144316</v>
+        <v>0.6626675716102</v>
       </c>
       <c r="D23">
-        <v>0.0820360198250345</v>
+        <v>0.02829136112815789</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.542244331139941</v>
+        <v>1.909564434078291</v>
       </c>
       <c r="G23">
-        <v>1.893469077649939</v>
+        <v>1.746398756415999</v>
       </c>
       <c r="H23">
-        <v>1.581898633884265</v>
+        <v>0.9968171104229953</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.198762935820314</v>
+        <v>0.07636944817158819</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3333021754959304</v>
+        <v>0.2572907224445231</v>
       </c>
       <c r="M23">
-        <v>0.4592118009536819</v>
+        <v>0.7414588268989988</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.991653066164588</v>
+        <v>3.783649104126766</v>
       </c>
       <c r="C24">
-        <v>0.2078977388457872</v>
+        <v>0.5764413195579436</v>
       </c>
       <c r="D24">
-        <v>0.0817402486961285</v>
+        <v>0.02655395654985604</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.530702679845362</v>
+        <v>1.747006108720583</v>
       </c>
       <c r="G24">
-        <v>1.873885811026838</v>
+        <v>1.57063801301922</v>
       </c>
       <c r="H24">
-        <v>1.582468715150725</v>
+        <v>0.9302214207225745</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2005627577462317</v>
+        <v>0.08057896505940443</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3279301857562587</v>
+        <v>0.2282452815341571</v>
       </c>
       <c r="M24">
-        <v>0.4330242160222326</v>
+        <v>0.634490359432327</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.811465155173494</v>
+        <v>3.088322187382857</v>
       </c>
       <c r="C25">
-        <v>0.1792745122400277</v>
+        <v>0.4847291007219212</v>
       </c>
       <c r="D25">
-        <v>0.08143860959734184</v>
+        <v>0.02477517272221696</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.523493581213145</v>
+        <v>1.589781703455074</v>
       </c>
       <c r="G25">
-        <v>1.857274315135044</v>
+        <v>1.399342270467514</v>
       </c>
       <c r="H25">
-        <v>1.586079322376548</v>
+        <v>0.8678521782078974</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2026452112190757</v>
+        <v>0.08533360451544647</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3225593903743444</v>
+        <v>0.1980150770408997</v>
       </c>
       <c r="M25">
-        <v>0.4053977410139069</v>
+        <v>0.5219398443462353</v>
       </c>
       <c r="N25">
         <v>0</v>
